--- a/src/test/resources/testdata/Data.xlsx
+++ b/src/test/resources/testdata/Data.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartikeysharma\Automation_QA\ExitTestFinal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD1C8D5-889D-4164-AA88-4D73AF1A2F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F07EA-D8D5-4255-ABB8-21D96F668F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
+    <sheet name="grocery" sheetId="2" r:id="rId2"/>
+    <sheet name="seller" sheetId="3" r:id="rId3"/>
+    <sheet name="fashion" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,22 +28,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>item name</t>
   </si>
   <si>
     <t>phones</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>kurkure Masala Munch</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>hello@gmail.com</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Men's Top Wear</t>
+  </si>
+  <si>
+    <t>Men Regular Fit Solid Spread Collar Casual Shirt</t>
+  </si>
+  <si>
+    <t>Men Footwear</t>
+  </si>
+  <si>
+    <t>Lace Up For Men</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +116,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -359,14 +415,135 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E727E1-520E-42A9-82B3-72C811FAA530}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>208001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31BF0DD-F3B8-4C8A-8230-2D26F2F5B985}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>9919520904</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{924A69E0-D1E3-4E88-9836-EEE29FE51ECE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B9F2D4-61DB-4950-8A12-63C47FB17973}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/Data.xlsx
+++ b/src/test/resources/testdata/Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartikeysharma\Automation_QA\ExitTestFinal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40F07EA-D8D5-4255-ABB8-21D96F668F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34190543-5E3F-4C46-9F45-606AC9536982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
     <sheet name="grocery" sheetId="2" r:id="rId2"/>
     <sheet name="seller" sheetId="3" r:id="rId3"/>
     <sheet name="fashion" sheetId="4" r:id="rId4"/>
+    <sheet name="Tests" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
   <si>
     <t>item name</t>
   </si>
@@ -48,9 +49,6 @@
     <t>item</t>
   </si>
   <si>
-    <t>kurkure Masala Munch</t>
-  </si>
-  <si>
     <t>mobile number</t>
   </si>
   <si>
@@ -72,10 +70,157 @@
     <t>Men Regular Fit Solid Spread Collar Casual Shirt</t>
   </si>
   <si>
-    <t>Men Footwear</t>
-  </si>
-  <si>
-    <t>Lace Up For Men</t>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Contains Sheet</t>
+  </si>
+  <si>
+    <t>TC_1</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Sheet name</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t>fashion</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>twowheeler</t>
+  </si>
+  <si>
+    <t>becomeSeller</t>
+  </si>
+  <si>
+    <t>seller</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>Careers</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Signup</t>
+  </si>
+  <si>
+    <t>Shopsy</t>
+  </si>
+  <si>
+    <t>CorporateWebsite</t>
+  </si>
+  <si>
+    <t>Advertise</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>GiftCard</t>
+  </si>
+  <si>
+    <t>GiftCardPersonal</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>TC_5</t>
+  </si>
+  <si>
+    <t>TC_6</t>
+  </si>
+  <si>
+    <t>TC_7</t>
+  </si>
+  <si>
+    <t>TC_8</t>
+  </si>
+  <si>
+    <t>TC_9</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>specficProduct</t>
+  </si>
+  <si>
+    <t>Lays American Style Cream and Onion Chips</t>
   </si>
 </sst>
 </file>
@@ -441,12 +586,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -462,7 +607,7 @@
         <v>208001</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -486,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -497,7 +642,7 @@
         <v>9919520904</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -510,10 +655,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B9F2D4-61DB-4950-8A12-63C47FB17973}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -524,26 +669,397 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B03D15-F0F4-41DA-B254-3ED99681A66F}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/Data.xlsx
+++ b/src/test/resources/testdata/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartikeysharma\Automation_QA\ExitTestFinal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34190543-5E3F-4C46-9F45-606AC9536982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADDD975-83D4-4970-BD0B-E57A3DEAB55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="seller" sheetId="3" r:id="rId3"/>
     <sheet name="fashion" sheetId="4" r:id="rId4"/>
     <sheet name="Tests" sheetId="5" r:id="rId5"/>
+    <sheet name="Details" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>item name</t>
   </si>
@@ -221,6 +222,21 @@
   </si>
   <si>
     <t>Lays American Style Cream and Onion Chips</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>kartikey sharma</t>
+  </si>
+  <si>
+    <t>Hello@123</t>
   </si>
 </sst>
 </file>
@@ -692,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B03D15-F0F4-41DA-B254-3ED99681A66F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1065,4 +1081,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBDA71-AF64-4556-8EDB-403953C77DAE}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>9990123515</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{31E32EF6-27AA-4D89-BEF1-419AE5DB7234}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{8CFECE5B-5BA7-416D-B6A4-478285755884}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/Data.xlsx
+++ b/src/test/resources/testdata/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartikeysharma\Automation_QA\ExitTestFinal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADDD975-83D4-4970-BD0B-E57A3DEAB55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631E611E-8BC3-460B-960C-A239B63E695D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B03D15-F0F4-41DA-B254-3ED99681A66F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,7 +1035,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBDA71-AF64-4556-8EDB-403953C77DAE}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/Data.xlsx
+++ b/src/test/resources/testdata/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kartikeysharma\Automation_QA\ExitTestFinal\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631E611E-8BC3-460B-960C-A239B63E695D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65651D09-3C3E-4B03-BD4D-5F44631E5B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,7 +709,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
